--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6760AA-2509-4DEC-B225-108EDED18921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D3C2F8-E256-4077-856B-C7D5D21EAEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -291,25 +291,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.リンクから勤務表記入画面へ遷移</t>
-    <rPh sb="7" eb="9">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,13 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,67 +910,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,20 +973,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,23 +1382,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1438,21 +1419,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1473,21 +1454,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1578,25 +1559,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1617,21 +1598,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1652,25 +1633,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1691,21 +1672,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1829,29 +1810,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="16" t="s">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="16" t="s">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1872,29 +1853,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21">
         <v>44113</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15">
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21">
         <v>44113</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2222,6 +2203,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2229,12 +2216,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2246,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC7" sqref="AC7:AE7"/>
     </sheetView>
   </sheetViews>
@@ -2260,104 +2241,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -2458,682 +2439,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="45"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="46">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
         <v>44113</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="35" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="41"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="33"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="51"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3209,62 +3190,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3281,22 +3222,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3323,104 +3304,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4301,104 +4282,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4472,96 +4453,96 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58" t="s">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58" t="s">
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
       <c r="AG5" s="7"/>
     </row>
     <row r="6" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="28">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57" t="s">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="59" t="s">
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -5193,11 +5174,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="X6:AF6"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5211,12 +5193,11 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="X5:AF5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5231,10 +5212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5247,104 +5228,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -5462,7 +5443,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5646,9 +5627,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -5758,7 +5737,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -5816,7 +5795,7 @@
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -5871,7 +5850,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -5943,7 +5922,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5980,7 +5959,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -6051,7 +6030,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -6089,7 +6068,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6126,7 +6105,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -6164,7 +6143,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -6237,46 +6216,42 @@
     <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T28" s="13"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="13"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="7"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -6291,11 +6266,9 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="4"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -6306,569 +6279,9 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="7"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="7"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="7"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="7"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="7"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="7"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="7"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="7"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="7"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="7"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="7"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="7"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="7"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="7"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="7"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="7"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="4"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6909,104 +6322,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D3C2F8-E256-4077-856B-C7D5D21EAEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED440398-C6AD-49AA-9BBD-8DD5B3175367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="1590" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -270,35 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. 現在の月から12か月前までの月をリンク先として表示</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -353,16 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-2.work_report_monthlyテーブルのauth_flgの値を確認</t>
-    <rPh sb="37" eb="38">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>workCalendar</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,47 +333,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2-1.値が"0"の場合、勤務報告書登録画面へ遷移</t>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2-2.値が"1"の場合、登録済データを表示する(編集不可)</t>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>フカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -426,15 +346,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示する登録データはwork_report_dailyを参照</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
+    <t>year_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 現在の月から12か月前までの月を取得してHTMLに値を投げる</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
     </rPh>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
+    <rPh sb="12" eb="13">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -898,7 +837,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,25 +855,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,67 +960,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,23 +1321,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1419,21 +1358,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1454,21 +1393,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1559,25 +1498,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1598,21 +1537,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1633,25 +1572,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1672,21 +1611,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1810,29 +1749,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="20" t="s">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1853,29 +1792,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="21">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15">
         <v>44113</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="21">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15">
         <v>44113</v>
       </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2203,12 +2142,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2216,6 +2149,12 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2241,104 +2180,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -2439,682 +2378,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="28" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="29"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="45"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="30">
+      <c r="B7" s="46">
         <v>1</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49">
         <v>44113</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="39" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="41"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="41"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="37"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="41"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="41"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="37"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="37"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="37"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="48"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="37"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="41"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="37"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="37"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="37"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="41"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="37"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="41"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="37"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="51"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="33"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3190,6 +3129,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B24:D24"/>
@@ -3206,78 +3217,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3289,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3304,104 +3243,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4268,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4282,104 +4221,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4453,96 +4392,96 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57" t="s">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57" t="s">
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
       <c r="AG5" s="7"/>
     </row>
     <row r="6" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="45">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="58" t="s">
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -5174,12 +5113,10 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5194,10 +5131,12 @@
     <mergeCell ref="X5:AF5"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="J5:O5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="X6:AF6"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5214,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5228,104 +5167,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -5443,7 +5382,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5556,7 +5495,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5737,7 +5676,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -5795,7 +5734,7 @@
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -5850,7 +5789,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -5922,7 +5861,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5959,7 +5898,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -6029,9 +5968,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -6067,9 +6004,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -6104,9 +6039,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -6142,9 +6075,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -6322,104 +6253,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>月別一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44113</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK02001_月別一覧画面.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\画面設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED440398-C6AD-49AA-9BBD-8DD5B3175367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1590" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="1590" windowWidth="11115" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
     <sheet name="画面デザイン" sheetId="1" r:id="rId3"/>
-    <sheet name="入出力項目" sheetId="4" r:id="rId4"/>
+    <sheet name="入出力項目" sheetId="8" r:id="rId4"/>
     <sheet name="処理概要" sheetId="5" r:id="rId5"/>
     <sheet name="備考" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -158,13 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>物理名</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
@@ -186,10 +178,6 @@
     <rPh sb="3" eb="4">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -225,10 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バリデーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目の型</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -237,19 +221,6 @@
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル論理名：</t>
-  </si>
-  <si>
-    <t>テーブル物理名：</t>
   </si>
   <si>
     <t>高橋</t>
@@ -266,60 +237,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KK02001_Controller</t>
+    <t>年月</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>年月</t>
-    <rPh sb="0" eb="2">
-      <t>ネンゲツ</t>
-    </rPh>
+    <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.管理者であれば社員一覧画面へ、一般なら勤務報告書画面へ遷移</t>
-    <rPh sb="2" eb="5">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
+    <t>KK02001Controller</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.次の画面へのパスを用意</t>
-    <rPh sb="2" eb="3">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <t>setForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 月別一覧画面で使用するformを返す。</t>
+    <rPh sb="3" eb="5">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウイ</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -328,52 +279,242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>workReportPath</t>
+    <t>KK02001Form</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>String</t>
+    <t>KK02001Form,Model</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(userテーブルのadmin_flgの値が"1"なら管理者)</t>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カンリシャ</t>
+    <t>2. 月別一覧画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <rPh sb="3" eb="7">
+      <t>ツキベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>year_month</t>
+    <t>1. 現在月を含む過去12ヶ月分の年月のリストを生成し、モデルに追加する。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. 現在の月から12か月前までの月を取得してHTMLに値を投げる</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナ</t>
+    <t>3. 戻り値（月別一覧画面のパス）を返し、月別一覧画面を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backMenu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 戻るボタン押下時、メニュー画面へリダイレクトする。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oneYearCalendarList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>取得元テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>シュトクモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力項目、処理概要
+メニュー画面追加に伴う必要な項目・メソッドの追加</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショリガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザが管理者(admin_flg = 1)の場合社員一覧画面へ、一般ユーザ(admin_flg = 0)の場合勤務報告書画面へ遷移する</t>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="37" eb="42">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="65">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,11 +522,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +594,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -793,10 +941,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -918,6 +1067,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,18 +1118,46 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,29 +1434,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="3.58203125" style="1"/>
+    <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.58203125" style="1"/>
+    <col min="16" max="18" width="3.625" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.58203125" style="1"/>
+    <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1311,7 +1489,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1348,7 +1526,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1383,7 +1561,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1418,7 +1596,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1453,7 +1631,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1488,7 +1666,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1527,7 +1705,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1562,7 +1740,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1580,7 +1758,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -1601,7 +1779,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1636,7 +1814,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1671,7 +1849,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1706,7 +1884,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1739,7 +1917,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1755,7 +1933,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -1767,7 +1945,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -1782,7 +1960,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1810,7 +1988,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15">
-        <v>44113</v>
+        <v>44153</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -1825,7 +2003,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1860,7 +2038,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1895,7 +2073,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1930,7 +2108,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1965,7 +2143,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2000,7 +2178,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2035,7 +2213,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2070,7 +2248,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2105,7 +2283,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2163,23 +2341,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7:AE7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
-    <col min="24" max="27" width="2.83203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.58203125" style="1"/>
-    <col min="30" max="33" width="2.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -2210,18 +2388,18 @@
         <v>2</v>
       </c>
       <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="X1" s="56" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AD1" s="57">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
@@ -2229,7 +2407,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2260,26 +2438,26 @@
         <v>3</v>
       </c>
       <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="X2" s="56" t="str">
         <f>表紙!U16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+        <v>髙田</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AD2" s="57">
         <f>表紙!U17</f>
-        <v>44113</v>
+        <v>44153</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2314,7 +2492,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -2341,7 +2519,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2376,102 +2554,108 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="45"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="46"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50">
         <v>44113</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="35" t="s">
-        <v>30</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27">
+        <v>44153</v>
+      </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -2491,13 +2675,15 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
-      <c r="AC8" s="35"/>
+      <c r="AC8" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -2532,7 +2718,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
@@ -2567,7 +2753,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
@@ -2602,7 +2788,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
@@ -2637,7 +2823,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -2672,7 +2858,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -2707,7 +2893,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -2742,7 +2928,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
@@ -2777,7 +2963,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
@@ -2812,7 +2998,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -2847,7 +3033,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
@@ -2882,7 +3068,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -2917,7 +3103,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
@@ -2952,7 +3138,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
@@ -2987,7 +3173,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
@@ -3022,7 +3208,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -3057,7 +3243,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3092,7 +3278,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3225,24 +3411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.58203125" style="1"/>
-    <col min="29" max="29" width="3.58203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.625" style="1"/>
+    <col min="29" max="29" width="3.625" style="1" customWidth="1"/>
     <col min="30" max="33" width="3" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -3273,18 +3459,18 @@
         <v>2</v>
       </c>
       <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="X1" s="56" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AD1" s="57">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
@@ -3292,7 +3478,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -3323,26 +3509,26 @@
         <v>3</v>
       </c>
       <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="X2" s="56" t="str">
         <f>表紙!U16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+        <v>髙田</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AD2" s="57">
         <f>表紙!U17</f>
-        <v>44113</v>
+        <v>44153</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3377,7 +3563,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3412,7 +3598,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3447,7 +3633,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3482,7 +3668,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3517,7 +3703,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3552,7 +3738,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3587,7 +3773,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3622,7 +3808,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3657,7 +3843,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3692,7 +3878,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3727,7 +3913,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3762,7 +3948,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3797,7 +3983,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3832,7 +4018,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3867,7 +4053,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3902,7 +4088,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3937,7 +4123,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3972,7 +4158,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4007,7 +4193,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4042,7 +4228,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4077,7 +4263,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4112,7 +4298,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4147,7 +4333,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4204,23 +4390,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.58203125" style="1"/>
+    <col min="28" max="28" width="3.625" style="1"/>
+    <col min="29" max="29" width="3.625" style="1" customWidth="1"/>
     <col min="30" max="33" width="3" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
+    <col min="34" max="37" width="3.375" style="1" customWidth="1"/>
+    <col min="38" max="53" width="3" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -4251,26 +4441,46 @@
         <v>2</v>
       </c>
       <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="X1" s="56" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AD1" s="57">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
       <c r="AE1" s="34"/>
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="10"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -4301,26 +4511,1254 @@
         <v>3</v>
       </c>
       <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="X2" s="56" t="str">
         <f>表紙!U16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+        <v>髙田</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AD2" s="57">
         <f>表紙!U17</f>
-        <v>44113</v>
+        <v>44153</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="7"/>
+    </row>
+    <row r="3" spans="1:53" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="7"/>
+    </row>
+    <row r="4" spans="1:53" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="7"/>
+    </row>
+    <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="41"/>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="7"/>
+    </row>
+    <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="7"/>
+    </row>
+    <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="7"/>
+    </row>
+    <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="7"/>
+    </row>
+    <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="7"/>
+    </row>
+    <row r="17" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="7"/>
+    </row>
+    <row r="18" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="7"/>
+    </row>
+    <row r="19" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="7"/>
+    </row>
+    <row r="20" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN5:AZ5"/>
+    <mergeCell ref="AN6:AZ6"/>
+    <mergeCell ref="AN7:AZ7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:X7">
+      <formula1>"text,textarea,password,button,radio,link"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
+  <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="56" t="str">
+        <f>表紙!M16</f>
+        <v>高橋</v>
+      </c>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="57">
+        <f>表紙!M17</f>
+        <v>44113</v>
+      </c>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
+        <f>表紙!O11</f>
+        <v>月別一覧</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="34"/>
+      <c r="X2" s="56" t="str">
+        <f>表紙!U16</f>
+        <v>髙田</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="57">
+        <f>表紙!U17</f>
+        <v>44153</v>
+      </c>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4355,9 +5793,11 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4390,101 +5830,1248 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="7"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="7"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="7"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="7"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="7"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="56" t="str">
+        <f>表紙!M16</f>
+        <v>高橋</v>
+      </c>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="57">
+        <f>表紙!M17</f>
+        <v>44113</v>
+      </c>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
+        <f>表紙!O11</f>
+        <v>月別一覧</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="34"/>
+      <c r="X2" s="56" t="str">
+        <f>表紙!U16</f>
+        <v>髙田</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="57">
+        <f>表紙!U17</f>
+        <v>44153</v>
+      </c>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4499,6 +7086,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -4516,7 +7106,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4551,7 +7141,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4586,7 +7176,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4621,7 +7211,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4656,7 +7246,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4691,7 +7281,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4726,7 +7316,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4761,7 +7351,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4796,7 +7386,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4831,7 +7421,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4866,7 +7456,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4901,7 +7491,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4936,7 +7526,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4971,7 +7561,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5006,7 +7596,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5041,2166 +7631,40 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="7"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"text,textarea,password,button,link"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
-    <col min="24" max="27" width="2.83203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.58203125" style="1"/>
-    <col min="30" max="33" width="2.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
-        <f>表紙!O9</f>
-        <v>勤怠管理システム</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
-        <f>表紙!M16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
-        <f>表紙!M17</f>
-        <v>44113</v>
-      </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
-        <f>表紙!O11</f>
-        <v>月別一覧</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
-        <f>表紙!U16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
-        <f>表紙!U17</f>
-        <v>44113</v>
-      </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="7"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="7"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="7"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="7"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="7"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="7"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="7"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="7"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="7"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="7"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="7"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AG26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
-    <col min="24" max="27" width="2.83203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.58203125" style="1"/>
-    <col min="30" max="33" width="2.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
-        <f>表紙!O9</f>
-        <v>勤怠管理システム</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
-        <f>表紙!M16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
-        <f>表紙!M17</f>
-        <v>44113</v>
-      </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
-        <f>表紙!O11</f>
-        <v>月別一覧</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
-        <f>表紙!U16</f>
-        <v>高橋</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
-        <f>表紙!U17</f>
-        <v>44113</v>
-      </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="7"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="7"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="7"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="7"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="7"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="7"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="7"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="7"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="4"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
